--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27448FED-A17A-40DA-8B36-C0C9AC268CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276D0E1-5D71-4956-8274-39D7EB4AB7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D54E7F17-1815-48B4-8BB5-9F75F05BF306}"/>
   </bookViews>
@@ -25,42 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t xml:space="preserve">SPN No. </t>
+    <t>age</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">sumeet sawant </t>
+    <t>no</t>
   </si>
   <si>
-    <t>shlok pawar</t>
-  </si>
-  <si>
-    <t>lance</t>
-  </si>
-  <si>
-    <t>satyam</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>prathmesh nagarkar</t>
-  </si>
-  <si>
-    <t>jayesh parab</t>
-  </si>
-  <si>
-    <t>mansavi patil</t>
-  </si>
-  <si>
-    <t>tejas lanke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avelon </t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -423,7 +399,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,83 +417,73 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2203151</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2203152</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2203153</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2203154</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2203155</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2203156</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2230157</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2203158</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2203159</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2203160</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
